--- a/2025-10-17/17_ai.full_fixtures.xlsx
+++ b/2025-10-17/17_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,15 +566,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pafos FC ✓ - Ethnikos Achnas: 4:0</t>
+          <t>Paris Saint-Germain  - RC Strasbourg Alsace: 3:3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -585,13 +585,9 @@
           <t>73%</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -605,15 +601,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alianza FC  - CD Hércules: 23:00</t>
+          <t>Pafos FC ✓ - Ethnikos Achnas: 4:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alianza FC</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -621,12 +617,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -640,32 +640,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Turan-Tovuz IK - Qarabağ FK ✓: 1:2</t>
+          <t>Alianza FC  - CD Hércules: 23:00</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Alianza FC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -679,19 +675,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NK Triglav Kranj ✓ - NK Jesenice: 6:0</t>
+          <t>Turan-Tovuz IK - Qarabağ FK ✓: 1:2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.76</v>
+        <v>1.94</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NK Triglav Kranj</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -704,7 +700,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -718,19 +714,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SKN St. Pölten ✓ - SC Austria Lustenau: 1:0</t>
+          <t>NK Triglav Kranj ✓ - NK Jesenice: 6:0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.98</v>
+        <v>3.76</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SKN St. Pölten</t>
+          <t>NK Triglav Kranj</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -743,10 +739,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -757,28 +753,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NK Brinje Grosuplje  - NK Dekani: 1:1</t>
+          <t>SKN St. Pölten ✓ - SC Austria Lustenau: 1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.02</v>
+        <v>1.98</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NK Brinje Grosuplje</t>
+          <t>SKN St. Pölten</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -792,31 +792,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam U21  - PSV Eindhoven U21: 2:2</t>
+          <t>NK Brinje Grosuplje  - NK Dekani: 1:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.13</v>
+        <v>3.02</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam U21</t>
+          <t>NK Brinje Grosuplje</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -827,32 +827,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kaspiy Aktau ✓ - Shakhter Karaganda: 3:2</t>
+          <t>Ajax Amsterdam U21  - PSV Eindhoven U21: 2:2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.01</v>
+        <v>2.13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kaspiy Aktau</t>
+          <t>Ajax Amsterdam U21</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -866,28 +862,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>APIA Leichhardt FC  - Sydney United 58 FC: 08:30</t>
+          <t>Kaspiy Aktau ✓ - Shakhter Karaganda: 3:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.02</v>
+        <v>3.01</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>APIA Leichhardt FC</t>
+          <t>Kaspiy Aktau</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -901,28 +901,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CD Olimpia  - CD Motagua Tegucigalpa: 2:2</t>
+          <t>APIA Leichhardt FC  - Sydney United 58 FC: 08:30</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CD Olimpia</t>
+          <t>APIA Leichhardt FC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -936,28 +936,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bahla Club  - Dhofar Club: 14:00</t>
+          <t>CD Olimpia  - CD Motagua Tegucigalpa: 2:2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.82</v>
+        <v>1.62</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bahla Club</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -971,28 +971,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NK Sesvete  - NK Hrvace: 2:2</t>
+          <t>Bahla Club  - Dhofar Club: 14:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.78</v>
+        <v>0.82</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NK Sesvete</t>
+          <t>Bahla Club</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1006,15 +1006,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Beerschot VA  - SK Beveren: 1:1</t>
+          <t>NK Sesvete  - NK Hrvace: 2:2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>NK Sesvete</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1027,10 +1027,10 @@
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1041,15 +1041,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Altay Oskemen - Irtysh Pavlodar : 1:1</t>
+          <t>Beerschot VA  - SK Beveren: 1:1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Irtysh Pavlodar</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1076,31 +1076,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Red Star Belgrade  - FK IMT Belgrad: 23:00</t>
+          <t>Altay Oskemen - Irtysh Pavlodar : 1:1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.18</v>
+        <v>1.42</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Irtysh Pavlodar</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Al-Ahli SFC  - Al-Shabab FC: 1:1</t>
+          <t>Red Star Belgrade  - FK IMT Belgrad: 23:00</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al-Ahli SFC</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1127,15 +1127,15 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1146,28 +1146,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Independiente Medellín  - Fortaleza CEIF: 00:00</t>
+          <t>Al-Ahli SFC  - Al-Shabab FC: 1:1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.93</v>
+        <v>3.34</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Independiente Medellín</t>
+          <t>Al-Ahli SFC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1181,35 +1181,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Al-Ahed ✓ - Al-Mabarra Club: 2:0</t>
+          <t>Independiente Medellín  - Fortaleza CEIF: 00:00</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al-Ahed</t>
+          <t>Independiente Medellín</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>58%</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1220,19 +1216,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng ✓ - Meizhou Hakka: 3:1</t>
+          <t>Al-Ahed ✓ - Al-Mabarra Club: 2:0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Al-Ahed</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1245,7 +1241,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1259,7 +1255,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu - Shanghai Port ✓: 3:4</t>
+          <t>Chengdu Rongcheng ✓ - Meizhou Hakka: 3:1</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1267,7 +1263,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1275,7 +1271,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1284,7 +1280,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1298,19 +1294,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FC Ozgon - Bars Karakol ✓: 0:1</t>
+          <t>Qingdao Hainiu - Shanghai Port ✓: 3:4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.01</v>
+        <v>2.01</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bars Karakol</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1323,10 +1319,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1337,15 +1333,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima  - FC Tokyo: 0:0</t>
+          <t>FC Ozgon - Bars Karakol ✓: 0:1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Bars Karakol</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1356,9 +1352,13 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1372,19 +1372,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MFK Dukla Banska Bystrica ✓ - FC Petrzalka: 1:0</t>
+          <t>Llandudno FC ✓ - Flint Mountain: 3:0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.6</v>
+        <v>3.24</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MFK Dukla Banska Bystrica</t>
+          <t>Llandudno FC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1411,15 +1411,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GD Chaves - SL Benfica ✓: 0:2</t>
+          <t>Sanfrecce Hiroshima  - FC Tokyo: 0:0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SL Benfica</t>
+          <t>Sanfrecce Hiroshima</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1427,16 +1427,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>54%</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1450,31 +1446,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Struga Trim &amp; Lum  - AP Brera Strumica: 13:30</t>
+          <t>MFK Dukla Banska Bystrica ✓ - FC Petrzalka: 1:0</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.43</v>
+        <v>1.6</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Struga Trim &amp; Lum</t>
+          <t>MFK Dukla Banska Bystrica</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1485,15 +1485,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FK Zemun  - SU Dinamo Jug: 23:00</t>
+          <t>GD Chaves - SL Benfica ✓: 0:2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FK Zemun</t>
+          <t>SL Benfica</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1501,15 +1501,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>51%</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1520,35 +1524,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sharjah FC ✓ - Al-Dhafra FC: 2:0</t>
+          <t>Struga Trim &amp; Lum  - AP Brera Strumica: 13:30</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.21</v>
+        <v>2.43</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sharjah FC</t>
+          <t>Struga Trim &amp; Lum</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1559,15 +1559,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Al-Duhail SC  - Al-Sailiya SC: 17:30</t>
+          <t>FK Zemun  - SU Dinamo Jug: 23:00</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Al-Duhail SC</t>
+          <t>FK Zemun</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1594,15 +1594,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Real Estelí FC ✓ - Rancho Santana FC: 4:0</t>
+          <t>Tre Fiori FC ✓ - SS Folgore/Falciano: 2:1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.87</v>
+        <v>1.07</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Real Estelí FC</t>
+          <t>Tre Fiori FC</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1633,23 +1633,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dynamo Brest ✓ - FK Vitebsk: 2:1</t>
+          <t>Sharjah FC ✓ - Al-Dhafra FC: 2:0</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.72</v>
+        <v>3.21</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dynamo Brest</t>
+          <t>Sharjah FC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1658,10 +1658,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1672,31 +1672,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Young Violets Austria Wien  - SV Stripfing: 1:1</t>
+          <t>Al-Duhail SC  - Al-Sailiya SC: 17:30</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.49</v>
+        <v>1.69</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Young Violets Austria Wien</t>
+          <t>Al-Duhail SC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1707,15 +1707,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Al-Fayha FC - Al-Ittihad Club : 1:1</t>
+          <t>Real Estelí FC ✓ - Rancho Santana FC: 4:0</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Al-Ittihad Club</t>
+          <t>Real Estelí FC</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1723,15 +1723,19 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1742,23 +1746,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASK Voitsberg ✓ - SV Lafnitz: 5:0</t>
+          <t>Dynamo Brest ✓ - FK Vitebsk: 2:1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.39</v>
+        <v>1.72</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ASK Voitsberg</t>
+          <t>Dynamo Brest</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1767,7 +1771,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1781,32 +1785,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ESTAC Troyes ✓ - SC Bastia: 1:0</t>
+          <t>Young Violets Austria Wien  - SV Stripfing: 1:1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9</v>
+        <v>2.49</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Young Violets Austria Wien</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -1820,15 +1820,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FC Stade-Lausanne-Ouchy - FC Aarau ✓: 1:2</t>
+          <t>Al-Fayha FC - Al-Ittihad Club : 1:1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.36</v>
+        <v>1.94</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FC Aarau</t>
+          <t>Al-Ittihad Club</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1836,19 +1836,15 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1859,23 +1855,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Qyzyljar Petropavlovsk - Kairat Almaty ✓: 0:1</t>
+          <t>Racing Club ✓ - CA Aldosivi: 1:0</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.64</v>
+        <v>2.56</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kairat Almaty</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1898,23 +1894,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Club Alianza Lima ✓ - Sport Boys Association: 3:1</t>
+          <t>ASK Voitsberg ✓ - SV Lafnitz: 5:0</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.31</v>
+        <v>3.39</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Club Alianza Lima</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1923,7 +1919,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -1937,28 +1933,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mbarara City FC - BUL Jinja FC : 1:1</t>
+          <t>ESTAC Troyes ✓ - SC Bastia: 1:0</t>
         </is>
       </c>
       <c r="C41" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ESTAC Troyes</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>1.5</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>BUL Jinja FC</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -1972,15 +1972,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Olancho FC X - Juticalpa FC: 0:1</t>
+          <t>FC Stade-Lausanne-Ouchy - FC Aarau ✓: 1:2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Olancho FC</t>
+          <t>FC Aarau</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1988,19 +1988,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2011,23 +2011,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fluminense Football Club ✓ - Esporte Clube Juventude: 1:0</t>
+          <t>Qyzyljar Petropavlovsk - Kairat Almaty ✓: 0:1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.18</v>
+        <v>1.64</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fluminense Football Club</t>
+          <t>Kairat Almaty</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2050,15 +2050,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ES Zarzis - Esperance Tunis : 23:00</t>
+          <t>Club Alianza Lima ✓ - Sport Boys Association: 3:1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Esperance Tunis</t>
+          <t>Club Alianza Lima</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2066,12 +2066,16 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H44" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2085,23 +2089,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Uganda Revenue Authority FC  - Express FC: 1:1</t>
+          <t>Mbarara City FC - BUL Jinja FC : 1:1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.98</v>
+        <v>1.5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Uganda Revenue Authority FC</t>
+          <t>BUL Jinja FC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2120,15 +2124,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AB Argir - B71 Sandoy : 23:00</t>
+          <t>Olancho FC X - Juticalpa FC: 0:1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>B71 Sandoy</t>
+          <t>Olancho FC</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2136,15 +2140,19 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2155,23 +2163,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FK Kauno Žalgiris ✓ - FA Šiauliai: 3:1</t>
+          <t>Fluminense Football Club ✓ - Esporte Clube Juventude: 1:0</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FK Kauno Žalgiris</t>
+          <t>Fluminense Football Club</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2180,10 +2188,10 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2194,15 +2202,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kalba FC - Shabab Al-Ahli Club : 0:0</t>
+          <t>ES Zarzis - Esperance Tunis : 23:00</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Club</t>
+          <t>Esperance Tunis</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2210,15 +2218,15 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2229,31 +2237,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FK Macva Sabac  - FK Trayal Kruševac: 23:00</t>
+          <t>Uganda Revenue Authority FC  - Express FC: 1:1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.08</v>
+        <v>2.98</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FK Macva Sabac</t>
+          <t>Uganda Revenue Authority FC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2264,32 +2272,28 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>US Monastir X - JS Kabylie: 0:3</t>
+          <t>AB Argir - B71 Sandoy : 23:00</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.89</v>
+        <v>1.32</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>US Monastir</t>
+          <t>B71 Sandoy</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>36%</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -2303,23 +2307,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FC Meshakhte Tkibuli ✓ - Sioni Bolnisi: 1:0</t>
+          <t>Shelbourne FC ✓ - Sligo Rovers: 3:1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.99</v>
+        <v>1.61</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FC Meshakhte Tkibuli</t>
+          <t>Shelbourne FC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2328,10 +2332,10 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2342,15 +2346,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Deportes Quindío ✓ - Tigres FC: 2:1</t>
+          <t>FK Kauno Žalgiris ✓ - FA Šiauliai: 3:1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.15</v>
+        <v>1.82</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Deportes Quindío</t>
+          <t>FK Kauno Žalgiris</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2358,7 +2362,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2367,7 +2371,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2381,15 +2385,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vissel Kobe  - Kashima Antlers: 0:0</t>
+          <t>Kalba FC - Shabab Al-Ahli Club : 0:0</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Shabab Al-Ahli Club</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2397,7 +2401,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2416,28 +2420,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Al-Gharafa SC  - Qatar SC: 17:30</t>
+          <t>FK Macva Sabac  - FK Trayal Kruševac: 23:00</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.2</v>
+        <v>1.08</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Al-Gharafa SC</t>
+          <t>FK Macva Sabac</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2451,28 +2455,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sileks Kratovo  - Pelister Bitola: 13:30</t>
+          <t>US Monastir X - JS Kabylie: 0:3</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.75</v>
+        <v>0.89</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sileks Kratovo</t>
+          <t>US Monastir</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>34%</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H55" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
@@ -2486,23 +2494,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sogdiana Jizzakh ✓ - Surkhon Termiz: 2:1</t>
+          <t>Glacis United - Europa FC ✓: 0:2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.31</v>
+        <v>3.14</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sogdiana Jizzakh</t>
+          <t>Europa FC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2511,10 +2519,10 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2525,28 +2533,28 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FK Pribram - SK Artis Brno X: 1:0</t>
+          <t>FC Meshakhte Tkibuli ✓ - Sioni Bolnisi: 1:0</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.04</v>
+        <v>0.99</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SK Artis Brno</t>
+          <t>FC Meshakhte Tkibuli</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2564,15 +2572,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Regar-TadAZ Tursunzoda  - Hulbuk Vose: 0:0</t>
+          <t>Deportes Quindío ✓ - Tigres FC: 2:1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Regar-TadAZ Tursunzoda</t>
+          <t>Deportes Quindío</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2580,15 +2588,19 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2599,15 +2611,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FC Minsk 2 ✓ - FK Osipovichi: 3:2</t>
+          <t>Vissel Kobe  - Kashima Antlers: 0:0</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FC Minsk 2</t>
+          <t>Vissel Kobe</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2615,19 +2627,15 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2638,28 +2646,28 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Club Africain  - US Monastir: 23:00</t>
+          <t>Al-Gharafa SC  - Qatar SC: 17:30</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Club Africain</t>
+          <t>Al-Gharafa SC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2673,15 +2681,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Almere City FC - SC Cambuur Leeuwarden : 1:1</t>
+          <t>Sileks Kratovo  - Pelister Bitola: 13:30</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SC Cambuur Leeuwarden</t>
+          <t>Sileks Kratovo</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2689,15 +2697,15 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2708,15 +2716,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CD Fuerte San Francisco - CD Luis Angel Firpo : 23:00</t>
+          <t>Sogdiana Jizzakh ✓ - Surkhon Termiz: 2:1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CD Luis Angel Firpo</t>
+          <t>Sogdiana Jizzakh</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2724,12 +2732,16 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H62" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
@@ -2743,31 +2755,35 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MC Oran  - JS Saoura: 23:00</t>
+          <t>FK Pribram - SK Artis Brno X: 1:0</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>SK Artis Brno</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H63" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2778,15 +2794,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Roda JC Kerkrade ✓ - FC Den Bosch: 6:0</t>
+          <t>Regar-TadAZ Tursunzoda  - Hulbuk Vose: 0:0</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Roda JC Kerkrade</t>
+          <t>Regar-TadAZ Tursunzoda</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2794,19 +2810,15 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>29%</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2817,28 +2829,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CS Sfaxien  - AS Soliman: 23:00</t>
+          <t>FC Minsk 2 ✓ - FK Osipovichi: 3:2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.72</v>
+        <v>1.31</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CS Sfaxien</t>
+          <t>FC Minsk 2</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>29%</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H65" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -2852,32 +2868,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mosul SC ✓ - Diyala SC: 2:1</t>
+          <t>Club Africain  - US Monastir: 23:00</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.15</v>
+        <v>0.6</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mosul SC</t>
+          <t>Club Africain</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>28%</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -2891,15 +2903,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Al-Bataeh CSC - Al-Wahda FC ✓: 1:3</t>
+          <t>Almere City FC - SC Cambuur Leeuwarden : 1:1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Al-Wahda FC</t>
+          <t>SC Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2907,19 +2919,15 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>28%</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2930,15 +2938,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PSBS Biak - PERSIB Bandung ✓: 0:3</t>
+          <t>CD Fuerte San Francisco - CD Luis Angel Firpo : 23:00</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PERSIB Bandung</t>
+          <t>CD Luis Angel Firpo</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2946,16 +2954,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -2969,15 +2973,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Al-Nasr Club - Al-Seeb Club : 14:20</t>
+          <t>MC Oran  - JS Saoura: 23:00</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Al-Seeb Club</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2985,12 +2989,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -3004,15 +3008,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Esteghlal FC ✓ - Mes Rafsanjan: 1:0</t>
+          <t>Roda JC Kerkrade ✓ - FC Den Bosch: 6:0</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.19</v>
+        <v>1.58</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Esteghlal FC</t>
+          <t>Roda JC Kerkrade</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3020,7 +3024,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3029,10 +3033,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3043,23 +3047,23 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Inter FA - AD Isidro Metapán : 23:00</t>
+          <t>CS Sfaxien  - AS Soliman: 23:00</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.06</v>
+        <v>0.72</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>AD Isidro Metapán</t>
+          <t>CS Sfaxien</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3078,15 +3082,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Diriangén FC ✓ - Deportivo Walter Ferretti: 3:0</t>
+          <t>Mosul SC ✓ - Diyala SC: 2:1</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.69</v>
+        <v>1.15</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Diriangén FC</t>
+          <t>Mosul SC</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3094,7 +3098,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3117,28 +3121,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Slezsky FC Opava  - FK Viagem Usti nad Labem: 3:3</t>
+          <t>Al-Bataeh CSC - Al-Wahda FC ✓: 1:3</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Slezsky FC Opava</t>
+          <t>Al-Wahda FC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>24%</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -3152,15 +3160,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ACSM Politehnica Iasi  - CS Dinamo Bucuresti: 1:1</t>
+          <t>Hapoel Ramat Gan X - Maccabi Herzliya: 0:2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.18</v>
+        <v>1.91</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ACSM Politehnica Iasi</t>
+          <t>Hapoel Ramat Gan</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3168,10 +3176,14 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H74" t="n">
         <v>2</v>
       </c>
@@ -3187,15 +3199,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Zacatecoluca FC - CD FAS : 23:00</t>
+          <t>PSBS Biak - PERSIB Bandung ✓: 0:3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.16</v>
+        <v>1.89</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CD FAS</t>
+          <t>PERSIB Bandung</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3203,12 +3215,16 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H75" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
@@ -3222,32 +3238,28 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Richards Bay FC X - Orbit College FC: 1:2</t>
+          <t>Al-Nasr Club - Al-Seeb Club : 14:20</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.29</v>
+        <v>1.79</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Richards Bay FC</t>
+          <t>Al-Seeb Club</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
@@ -3261,31 +3273,35 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki  - Ruch Chorzow: 2:2</t>
+          <t>Esteghlal FC ✓ - Mes Rafsanjan: 1:0</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.37</v>
+        <v>1.19</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>Esteghlal FC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3296,15 +3312,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Etoile Sportive du Sahel  - Olympique Beja: 23:00</t>
+          <t>Inter FA - AD Isidro Metapán : 23:00</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Etoile Sportive du Sahel</t>
+          <t>AD Isidro Metapán</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3312,7 +3328,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -3331,28 +3347,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>OFK Beograd  - FK Napredak Krusevac: 23:00</t>
+          <t>Cobh Ramblers FC X - Dundalk FC: 1:2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2.07</v>
+        <v>1.57</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Cobh Ramblers FC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H79" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -3366,23 +3386,23 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Silkeborg IF - FC Copenhagen X: 3:1</t>
+          <t>Wexford FC X - Treaty United: 0:2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Wexford FC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3391,10 +3411,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3405,15 +3425,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FK Tekstilac Odzaci  - FK Usce Novi Beograd: 23:00</t>
+          <t>Diriangén FC ✓ - Deportivo Walter Ferretti: 3:0</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FK Tekstilac Odzaci</t>
+          <t>Diriangén FC</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3421,12 +3441,16 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H81" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
@@ -3440,35 +3464,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf X - Eintracht Braunschweig: 1:2</t>
+          <t>Slezsky FC Opava  - FK Viagem Usti nad Labem: 3:3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3.01</v>
+        <v>2.06</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf</t>
+          <t>Slezsky FC Opava</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3479,35 +3499,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Widzew Lodz ✓ - Radomiak Radom: 3:2</t>
+          <t>ACSM Politehnica Iasi  - CS Dinamo Bucuresti: 1:1</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.5</v>
+        <v>1.18</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>ACSM Politehnica Iasi</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3518,31 +3534,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SV Kapfenberg  - SK Austria Klagenfurt: 1:1</t>
+          <t>Zacatecoluca FC - CD FAS : 23:00</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.24</v>
+        <v>1.16</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SV Kapfenberg</t>
+          <t>CD FAS</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3553,28 +3569,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Miedz Legnica  - Pogon Siedlce: 2:2</t>
+          <t>Richards Bay FC X - Orbit College FC: 1:2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.59</v>
+        <v>0.29</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>Richards Bay FC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -3588,30 +3608,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Persita Tangerang ✓ - PSIM Yogyakarta: 4:0</t>
+          <t>Pogon Grodzisk Mazowiecki  - Ruch Chorzow: 2:2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.21</v>
+        <v>2.37</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Persita Tangerang</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
         <v>4</v>
       </c>
@@ -3627,15 +3643,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kendal Tornado FC  - Deltras FC: 13:00</t>
+          <t>Etoile Sportive du Sahel  - Olympique Beja: 23:00</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.89</v>
+        <v>1.34</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Kendal Tornado FC</t>
+          <t>Etoile Sportive du Sahel</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3643,12 +3659,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -3662,28 +3678,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>El Mokawloon SC  - Enppi SC: 1:1</t>
+          <t>OFK Beograd  - FK Napredak Krusevac: 23:00</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.03</v>
+        <v>2.07</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>El Mokawloon SC</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -3697,28 +3713,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Club Athlétique Bizertin  - Stade Tunisien: 23:00</t>
+          <t>Silkeborg IF - FC Copenhagen X: 3:1</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.61</v>
+        <v>2.03</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Club Athlétique Bizertin</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H89" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
@@ -3732,15 +3752,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CA Rentistas  - Uruguay Montevideo FC: 23:00</t>
+          <t>FK Tekstilac Odzaci  - FK Usce Novi Beograd: 23:00</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CA Rentistas</t>
+          <t>FK Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3748,7 +3768,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3767,31 +3787,35 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FK Vojvodina Novi Sad  - FK Radnicki 1923 Kragujevac: 23:00</t>
+          <t>Fortuna Düsseldorf X - Eintracht Braunschweig: 1:2</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.36</v>
+        <v>3.01</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FK Vojvodina Novi Sad</t>
+          <t>Fortuna Düsseldorf</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H91" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3802,28 +3826,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CD Cacahuatique  - CD Platense Zacatecoluca: 23:00</t>
+          <t>Widzew Lodz ✓ - Radomiak Radom: 3:2</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.06</v>
+        <v>2.5</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CD Cacahuatique</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H92" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -3837,35 +3865,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv ✓ - Botev Vratsa: 3:0</t>
+          <t>SV Kapfenberg  - SK Austria Klagenfurt: 1:1</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.24</v>
+        <v>3.24</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Lokomotiv Plovdiv</t>
+          <t>SV Kapfenberg</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3876,35 +3900,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Al-Gharraf SC X - Naft Missan: 0:1</t>
+          <t>Miedz Legnica  - Pogon Siedlce: 2:2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.77</v>
+        <v>1.59</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Al-Gharraf SC</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3915,28 +3935,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NK Aluminij Kidricevo  - NS Mura: 2:2</t>
+          <t>Audax Italiano ✓ - Unión La Calera: 4:3</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NK Aluminij Kidricevo</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H95" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -3950,32 +3974,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Goytre United - Cambrian United ✓: 0:6</t>
+          <t>Hapoel Acre X - Hapoel Raanana: 0:2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2.92</v>
+        <v>0.86</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Cambrian United</t>
+          <t>Hapoel Acre</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -3989,15 +4013,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hannover 96 X - FC Schalke 04: 0:3</t>
+          <t>Persita Tangerang ✓ - PSIM Yogyakarta: 4:0</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Hannover 96</t>
+          <t>Persita Tangerang</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4005,16 +4029,16 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
@@ -4028,15 +4052,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FK Cukaricki  - FK Novi Pazar: 23:00</t>
+          <t>Kendal Tornado FC  - Deltras FC: 13:00</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>FK Cukaricki</t>
+          <t>Kendal Tornado FC</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4044,12 +4068,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -4063,32 +4087,28 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Helmond Sport ✓ - AZ Alkmaar U21: 4:2</t>
+          <t>El Mokawloon SC  - Enppi SC: 1:1</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.95</v>
+        <v>0.03</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>El Mokawloon SC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -4102,31 +4122,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Al-Ittihad SC  - El Masry SC: 0:0</t>
+          <t>Club Athlétique Bizertin  - Stade Tunisien: 23:00</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.8</v>
+        <v>0.61</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Al-Ittihad SC</t>
+          <t>Club Athlétique Bizertin</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4137,15 +4157,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Al-Kholood Club ✓ - Al-Najma SC: 5:1</t>
+          <t>FK Vojvodina Novi Sad  - FK Radnicki 1923 Kragujevac: 23:00</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>FK Vojvodina Novi Sad</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4153,16 +4173,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -4176,15 +4192,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FK Vozdovac  - FK Smederevo 1924: 23:00</t>
+          <t>CD Cacahuatique  - CD Platense Zacatecoluca: 23:00</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>FK Vozdovac</t>
+          <t>CD Cacahuatique</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4192,7 +4208,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -4211,23 +4227,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Gol Gohar Sirjan FC ✓ - Chadormalu SC: 2:0</t>
+          <t>Lokomotiv Plovdiv ✓ - Botev Vratsa: 3:0</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.62</v>
+        <v>1.24</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Gol Gohar Sirjan FC</t>
+          <t>Lokomotiv Plovdiv</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4236,7 +4252,7 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -4250,28 +4266,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Boldklubben af 1893 - Aalborg BK : 2:2</t>
+          <t>Al-Gharraf SC X - Naft Missan: 0:1</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3.52</v>
+        <v>0.77</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Aalborg BK</t>
+          <t>Al-Gharraf SC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -4285,35 +4305,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Brisbane Roar ✓ - Macarthur FC: 1:0</t>
+          <t>NK Aluminij Kidricevo  - NS Mura: 2:2</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>NK Aluminij Kidricevo</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4324,15 +4340,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Grenoble Foot 38  - Pau FC: 1:1</t>
+          <t>Goytre United - Cambrian United ✓: 0:6</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Grenoble Foot 38</t>
+          <t>Cambrian United</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4340,15 +4356,19 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4359,35 +4379,35 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FC ViOn Zlate Moravce-Vrable ✓ - MSK Puchov: 2:1</t>
+          <t>SS Cosmos - SP Tre Penne X: 3:0</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2.69</v>
+        <v>1.6</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>FC ViOn Zlate Moravce-Vrable</t>
+          <t>SP Tre Penne</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H107" t="n">
         <v>3</v>
       </c>
       <c r="I107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4398,15 +4418,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FK Javor-Matis Ivanjica  - FK Radnik Surdulica: 23:00</t>
+          <t>Hannover 96 X - FC Schalke 04: 0:3</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>FK Javor-Matis Ivanjica</t>
+          <t>Hannover 96</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4414,12 +4434,16 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H108" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -4433,32 +4457,28 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Wadi Degla FC X - Modern Sport Club: 1:2</t>
+          <t>FK Cukaricki  - FK Novi Pazar: 23:00</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.86</v>
+        <v>1.81</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Wadi Degla FC</t>
+          <t>FK Cukaricki</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -4472,15 +4492,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Al-Bidda SC  - Muaither SC: 15:30</t>
+          <t>Helmond Sport ✓ - AZ Alkmaar U21: 4:2</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.41</v>
+        <v>1.95</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Al-Bidda SC</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4488,12 +4508,16 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H110" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -4507,15 +4531,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FC Andijon ✓ - Shurtan Guzar: 4:3</t>
+          <t>Al-Ittihad SC  - El Masry SC: 0:0</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1.32</v>
+        <v>1.8</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>FC Andijon</t>
+          <t>Al-Ittihad SC</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -4523,19 +4547,15 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4546,15 +4566,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FC Shamakhi X - Kapaz PFK: 1:4</t>
+          <t>Al-Kholood Club ✓ - Al-Najma SC: 5:1</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>FC Shamakhi</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4562,16 +4582,16 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -4585,32 +4605,28 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Motor Lublin X - GKS Katowice: 2:5</t>
+          <t>FK Vozdovac  - FK Smederevo 1924: 23:00</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2.48</v>
+        <v>1.15</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Motor Lublin</t>
+          <t>FK Vozdovac</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -4624,15 +4640,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FC Rapperswil-Jona ✓ - FC Stade Nyonnais: 1:0</t>
+          <t>Bray Wanderers ✓ - Kerry Football Club: 5:1</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>FC Rapperswil-Jona</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4640,7 +4656,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4649,10 +4665,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4663,15 +4679,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RKC Waalwijk X - Willem II Tilburg: 2:3</t>
+          <t>Waterford FC - Derry City ✓: 1:2</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -4679,19 +4695,19 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4702,15 +4718,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Olympique Akbou ✓ - MC El Bayadh: 1:0</t>
+          <t>Gol Gohar Sirjan FC ✓ - Chadormalu SC: 2:0</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Gol Gohar Sirjan FC</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4718,7 +4734,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4727,10 +4743,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4741,15 +4757,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Nakhonpathom United  - Pattaya United: 1:1</t>
+          <t>St. Patrick's Athletic ✓ - Shamrock Rovers: 1:0</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.2</v>
+        <v>1.98</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Nakhonpathom United</t>
+          <t>St. Patrick's Athletic</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4757,12 +4773,16 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="b">
         <v>1</v>
@@ -4776,23 +4796,23 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>US Boulogne  - EA Guingamp: 2:2</t>
+          <t>Boldklubben af 1893 - Aalborg BK : 2:2</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2.43</v>
+        <v>3.52</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>US Boulogne</t>
+          <t>Aalborg BK</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -4800,7 +4820,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4811,23 +4831,23 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Etoile Carouge FC - Neuchâtel Xamax FCS ✓: 0:2</t>
+          <t>Brisbane Roar ✓ - Macarthur FC: 1:0</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax FCS</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4836,7 +4856,7 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -4850,15 +4870,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FC Andorra  - Granada CF: 0:0</t>
+          <t>FK Khujand ✓ - Khosilot Farkhor: 2:1</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>FK Khujand</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4866,15 +4886,19 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4885,31 +4909,31 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AS Marsa  - Etoile Sportive Metlaoui: 23:00</t>
+          <t>Grenoble Foot 38  - Pau FC: 1:1</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.86</v>
+        <v>2.12</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>AS Marsa</t>
+          <t>Grenoble Foot 38</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4920,28 +4944,28 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Adelaide United - Sydney FC X: 2:1</t>
+          <t>FC ViOn Zlate Moravce-Vrable ✓ - MSK Puchov: 2:1</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3.4</v>
+        <v>2.69</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>FC ViOn Zlate Moravce-Vrable</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4959,31 +4983,31 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Al-Wakrah SC  - Al-Kharaitiyat SC: 1:1</t>
+          <t>FK Javor-Matis Ivanjica  - FK Radnik Surdulica: 23:00</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Al-Wakrah SC</t>
+          <t>FK Javor-Matis Ivanjica</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4994,23 +5018,23 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.SK Prostejov X - AC Sparta Prague B: 1:2</t>
+          <t>Wadi Degla FC X - Modern Sport Club: 1:2</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.52</v>
+        <v>0.86</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1.SK Prostejov</t>
+          <t>Wadi Degla FC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5033,28 +5057,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Persiku Kudus  - Persipal FC: 1:1</t>
+          <t>CD Real Tomayapo - Club Deportivo Guabirá X: 3:2</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.77</v>
+        <v>2.03</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Persiku Kudus</t>
+          <t>Club Deportivo Guabirá</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
@@ -5068,15 +5096,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FK Jedinstvo Ub  - FK Loznica: 23:00</t>
+          <t>Al-Bidda SC  - Muaither SC: 15:30</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>FK Jedinstvo Ub</t>
+          <t>Al-Bidda SC</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5084,12 +5112,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I126" t="b">
         <v>0</v>
@@ -5103,23 +5131,23 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Qingdao West Coast - Shanghai Shenhua ✓: 1:2</t>
+          <t>FC Andijon ✓ - Shurtan Guzar: 4:3</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2.28</v>
+        <v>1.32</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>FC Andijon</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5128,10 +5156,10 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5142,15 +5170,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FCV Farul Constanta  - ACSC FC Arges: 0:0</t>
+          <t>FC Shamakhi X - Kapaz PFK: 1:4</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>FCV Farul Constanta</t>
+          <t>FC Shamakhi</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -5158,15 +5186,19 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5177,23 +5209,23 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>HB Köge - Kolding IF X: 2:1</t>
+          <t>Motor Lublin X - GKS Katowice: 2:5</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.77</v>
+        <v>2.48</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Motor Lublin</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -5202,7 +5234,7 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
@@ -5216,15 +5248,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Umm Salal SC - Al-Sadd SC : 15:30</t>
+          <t>FC Rapperswil-Jona ✓ - FC Stade Nyonnais: 1:0</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2.83</v>
+        <v>2.24</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Al-Sadd SC</t>
+          <t>FC Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -5232,15 +5264,19 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H130" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5251,28 +5287,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CD Municipal Limeño  - CD Águila: 23:00</t>
+          <t>RKC Waalwijk X - Willem II Tilburg: 2:3</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CD Municipal Limeño</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>12%</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H131" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I131" t="b">
         <v>0</v>
@@ -5286,23 +5326,23 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>VVV-Venlo ✓ - FC Emmen: 4:0</t>
+          <t>Olympique Akbou ✓ - MC El Bayadh: 1:0</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.88</v>
+        <v>0.65</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>VVV-Venlo</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5311,10 +5351,10 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5325,15 +5365,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FC Shirak Gyumri - Alashkert Yerevan FC ✓: 1:2</t>
+          <t>Nakhonpathom United  - Pattaya United: 1:1</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Alashkert Yerevan FC</t>
+          <t>Nakhonpathom United</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -5341,19 +5381,15 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -5364,28 +5400,28 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ES Mostaganem X - ASO Chlef: 0:1</t>
+          <t>Drogheda United FC ✓ - Cork City FC: 1:0</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.78</v>
+        <v>1.76</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>Drogheda United FC</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -5403,15 +5439,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FK Borac 1926 Cacak  - FK FAP Priboj: 23:00</t>
+          <t>Finn Harps - University College Dublin ✓: 3:4</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>FK Borac 1926 Cacak</t>
+          <t>University College Dublin</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -5419,12 +5455,16 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H135" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I135" t="b">
         <v>0</v>
@@ -5438,28 +5478,28 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Omrane  - JS Kairouanaise: 23:00</t>
+          <t>US Boulogne  - EA Guingamp: 2:2</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.19</v>
+        <v>2.43</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Omrane</t>
+          <t>US Boulogne</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
@@ -5473,23 +5513,23 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CS Herediano - LD Alajuelense ✓: 1:3</t>
+          <t>Etoile Carouge FC - Neuchâtel Xamax FCS ✓: 0:2</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.79</v>
+        <v>2</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>LD Alajuelense</t>
+          <t>Neuchâtel Xamax FCS</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5498,10 +5538,10 @@
         </is>
       </c>
       <c r="H137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5512,31 +5552,31 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FK TSC Backa Topola  - FK Partizan Belgrade: 23:00</t>
+          <t>FC Andorra  - Granada CF: 0:0</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3.96</v>
+        <v>1.81</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>FK TSC Backa Topola</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -5547,32 +5587,28 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mash'al Mubarek X - Xorazm Urganch: 0:3</t>
+          <t>AS Marsa  - Etoile Sportive Metlaoui: 23:00</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Mash'al Mubarek</t>
+          <t>AS Marsa</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
@@ -5586,23 +5622,23 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Arsenal Dzerzhinsk X - Isloch Minsk Region: 0:1</t>
+          <t>Adelaide United - Sydney FC X: 2:1</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.12</v>
+        <v>3.4</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Arsenal Dzerzhinsk</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5611,7 +5647,7 @@
         </is>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
@@ -5625,31 +5661,35 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Rodez AF - Stade Reims : 2:2</t>
+          <t>Portadown FC ✓ - Linfield FC: 2:0</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Stade Reims</t>
+          <t>Portadown FC</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -5660,23 +5700,23 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Olympic Charleroi - KAS Eupen ✓: 0:1</t>
+          <t>Dunfermline Athletic FC ✓ - Raith Rovers FC: 2:0</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>2.28</v>
+        <v>1.28</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>KAS Eupen</t>
+          <t>Dunfermline Athletic FC</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5685,7 +5725,7 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -5699,32 +5739,28 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FC Vysocina Jihlava X - SK Dynamo Ceske Budejovice: 0:1</t>
+          <t>Al-Wakrah SC  - Al-Kharaitiyat SC: 1:1</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>FC Vysocina Jihlava</t>
+          <t>Al-Wakrah SC</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="b">
         <v>1</v>
@@ -5738,23 +5774,23 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FC Eindhoven X - Vitesse Arnhem: 0:4</t>
+          <t>1.SK Prostejov X - AC Sparta Prague B: 1:2</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2.45</v>
+        <v>1.52</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>1.SK Prostejov</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5763,7 +5799,7 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I144" t="b">
         <v>0</v>
@@ -5777,28 +5813,28 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Alianza Universidad  - Asociación Deportiva Tarma: 23:00</t>
+          <t>Persiku Kudus  - Persipal FC: 1:1</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2.07</v>
+        <v>0.77</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Alianza Universidad</t>
+          <t>Persiku Kudus</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I145" t="b">
         <v>0</v>
@@ -5812,15 +5848,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NK Opatija - NK Rudes ✓: 0:1</t>
+          <t>FK Jedinstvo Ub  - FK Loznica: 23:00</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NK Rudes</t>
+          <t>FK Jedinstvo Ub</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -5828,19 +5864,15 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5851,28 +5883,32 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>HNK Vukovar 1991  - NK Lokomotiva Zagreb: 1:1</t>
+          <t>Qingdao West Coast - Shanghai Shenhua ✓: 1:2</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.88</v>
+        <v>2.28</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HNK Vukovar 1991</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147" t="b">
         <v>1</v>
@@ -5886,15 +5922,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Union Sportive de Ben Guerdane  - Avenir Sportif de Gabès: 23:00</t>
+          <t>FCV Farul Constanta  - ACSC FC Arges: 0:0</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Union Sportive de Ben Guerdane</t>
+          <t>FCV Farul Constanta</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5902,15 +5938,15 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -5921,32 +5957,32 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.FC Union Berlin ✓ - Borussia Mönchengladbach: 3:1</t>
+          <t>HB Köge - Kolding IF X: 2:1</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2.39</v>
+        <v>1.77</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1.FC Union Berlin</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
@@ -5960,15 +5996,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SD Family Astana X - FC Aktobe II: 2:7</t>
+          <t>Umm Salal SC - Al-Sadd SC : 15:30</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2.28</v>
+        <v>2.83</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SD Family Astana</t>
+          <t>Al-Sadd SC</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -5976,16 +6012,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I150" t="b">
         <v>0</v>
@@ -5999,15 +6031,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>OFK Vrsac  - Graficar Belgrad: 23:00</t>
+          <t>CD Municipal Limeño  - CD Águila: 23:00</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>OFK Vrsac</t>
+          <t>CD Municipal Limeño</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -6015,7 +6047,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -6034,23 +6066,23 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Hougang United X - Albirex Niigata (S): 0:4</t>
+          <t>Hapoel Kfar Saba X - Hapoel Rishon leZion: 1:3</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>2.66</v>
+        <v>1.03</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Hougang United</t>
+          <t>Hapoel Kfar Saba</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6073,15 +6105,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ghazl El Mahalla ✓ - Kahraba Ismailia: 1:0</t>
+          <t>Santiago Morning - CD Cobreloa X: 3:0</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Ghazl El Mahalla</t>
+          <t>CD Cobreloa</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -6089,19 +6121,19 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -6112,15 +6144,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Iberia 1999 Tbilisi II - FC Samtredia ✓: 0:1</t>
+          <t>VVV-Venlo ✓ - FC Emmen: 4:0</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.16</v>
+        <v>1.88</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>FC Samtredia</t>
+          <t>VVV-Venlo</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -6128,7 +6160,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6137,10 +6169,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -6151,35 +6183,35 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dinamo Tbilisi II - FC Spaeri Tbilisi X: 2:1</t>
+          <t>FC Shirak Gyumri - Alashkert Yerevan FC ✓: 1:2</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2.68</v>
+        <v>1.47</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>FC Spaeri Tbilisi</t>
+          <t>Alashkert Yerevan FC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H155" t="n">
         <v>3</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6190,15 +6222,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FC Gonio ✓ - FC Locomotive Tbilisi: 2:1</t>
+          <t>Real Oviedo X - RCD Espanyol Barcelona: 0:2</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>FC Gonio</t>
+          <t>Real Oviedo</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -6206,19 +6238,19 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -6229,32 +6261,32 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan - Sepahan FC ✓: 0:2</t>
+          <t>ES Mostaganem X - ASO Chlef: 0:1</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.19</v>
+        <v>0.78</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Sepahan FC</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="b">
         <v>1</v>
@@ -6268,15 +6300,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Merani Martvili X - FC Rustavi: 0:3</t>
+          <t>FK Borac 1926 Cacak  - FK FAP Priboj: 23:00</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Merani Martvili</t>
+          <t>FK Borac 1926 Cacak</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -6284,16 +6316,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
@@ -6307,15 +6335,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FK Spartak Subotica  - FK Radnicki Nis: 23:00</t>
+          <t>Jeunesse Sportive Omrane  - JS Kairouanaise: 23:00</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>FK Spartak Subotica</t>
+          <t>Jeunesse Sportive Omrane</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -6323,7 +6351,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -6342,15 +6370,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SC Poltava X - Obolon Kyiv: 1:2</t>
+          <t>CS Herediano - LD Alajuelense ✓: 1:3</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SC Poltava</t>
+          <t>LD Alajuelense</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -6358,16 +6386,16 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160" t="b">
         <v>0</v>
@@ -6381,35 +6409,31 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ADO Den Haag ✓ - FC Dordrecht: 3:0</t>
+          <t>Lexington SC - Sacramento Republic FC : 2:2</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>2.07</v>
+        <v>1.19</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Sacramento Republic FC</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -6420,32 +6444,28 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ümraniyespor X - Sariyer: 1:3</t>
+          <t>FK TSC Backa Topola  - FK Partizan Belgrade: 23:00</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.57</v>
+        <v>3.96</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>FK TSC Backa Topola</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I162" t="b">
         <v>0</v>
@@ -6459,32 +6479,32 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Clermont Foot 63 X - FC Annecy: 0:1</t>
+          <t>Llanelli Town AFC ✓ - Haverfordwest County: 3:0</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.66</v>
+        <v>2.25</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Clermont Foot 63</t>
+          <t>Llanelli Town AFC</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I163" t="b">
         <v>1</v>
@@ -6498,15 +6518,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Virtus Entella ✓ - UC Sampdoria: 3:1</t>
+          <t>Mash'al Mubarek X - Xorazm Urganch: 0:3</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Virtus Entella</t>
+          <t>Mash'al Mubarek</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -6514,16 +6534,16 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -6537,31 +6557,35 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FK Mladost Lucani  - Zeleznicar Pancevo: 23:00</t>
+          <t>Arsenal Dzerzhinsk X - Isloch Minsk Region: 0:1</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.9</v>
+        <v>1.12</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>FK Mladost Lucani</t>
+          <t>Arsenal Dzerzhinsk</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H165" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -6572,28 +6596,32 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FK Kabel Novi Sad - FK Dubocica Leskovac : 23:00</t>
+          <t>Athlone Town AFC - Longford Town FC ✓: 1:2</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.52</v>
+        <v>1.77</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>FK Dubocica Leskovac</t>
+          <t>Longford Town FC</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H166" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I166" t="b">
         <v>0</v>
@@ -6607,32 +6635,28 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Deportes Recoleta X - Rangers de Talca: 2:3</t>
+          <t>Rodez AF - Stade Reims : 2:2</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Deportes Recoleta</t>
+          <t>Stade Reims</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I167" t="b">
         <v>0</v>
@@ -6646,31 +6670,35 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun - CS Constantine : 23:00</t>
+          <t>Olympic Charleroi - KAS Eupen ✓: 0:1</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>KAS Eupen</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H168" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -6681,15 +6709,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Esporte Clube Vitória - Esporte Clube Bahia X: 2:1</t>
+          <t>FC Vysocina Jihlava X - SK Dynamo Ceske Budejovice: 0:1</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Esporte Clube Bahia</t>
+          <t>FC Vysocina Jihlava</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -6697,7 +6725,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6706,10 +6734,10 @@
         </is>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -6720,23 +6748,23 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sriwijaya FC X - Persekat Tegal: 0:1</t>
+          <t>FC Eindhoven X - Vitesse Arnhem: 0:4</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Sriwijaya FC</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6745,10 +6773,10 @@
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -6759,15 +6787,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Kelantan The Real Warriors X - Sabah FC: 1:2</t>
+          <t>Alianza Universidad  - Asociación Deportiva Tarma: 23:00</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2.79</v>
+        <v>2.07</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Kelantan The Real Warriors</t>
+          <t>Alianza Universidad</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -6775,19 +6803,15 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -6798,15 +6822,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tadamon Sour X - Al-Abbassieh FC: 1:3</t>
+          <t>Ballinamallard United FC X - Loughgall FC: 0:1</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Tadamon Sour</t>
+          <t>Ballinamallard United FC</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -6814,7 +6838,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6823,10 +6847,10 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -6837,23 +6861,23 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FC Turkistan - Kairat-Zhas ✓: 1:4</t>
+          <t>NK Opatija - NK Rudes ✓: 0:1</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2.89</v>
+        <v>1.21</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Kairat-Zhas</t>
+          <t>NK Rudes</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6862,10 +6886,10 @@
         </is>
       </c>
       <c r="H173" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -6876,34 +6900,1289 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>HNK Vukovar 1991  - NK Lokomotiva Zagreb: 1:1</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>HNK Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Union Sportive de Ben Guerdane  - Avenir Sportif de Gabès: 23:00</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Union Sportive de Ben Guerdane</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>23</v>
+      </c>
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Middlesbrough FC - Ipswich Town X: 2:1</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>FC Domagnano ✓ - AC Juvenes-Dogana: 3:1</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>FC Domagnano</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+      <c r="I177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1.FC Union Berlin ✓ - Borussia Mönchengladbach: 3:1</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SD Family Astana X - FC Aktobe II: 2:7</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>SD Family Astana</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+      <c r="I179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>OFK Vrsac  - Graficar Belgrad: 23:00</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>OFK Vrsac</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>23</v>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Hougang United X - Albirex Niigata (S): 0:4</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Hougang United</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+      <c r="I181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Maccabi Jaffa X - Hapoel Afula: 1:2</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Maccabi Jaffa</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+      <c r="I182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Ghazl El Mahalla ✓ - Kahraba Ismailia: 1:0</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Ghazl El Mahalla</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Iberia 1999 Tbilisi II - FC Samtredia ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>FC Samtredia</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Dinamo Tbilisi II - FC Spaeri Tbilisi X: 2:1</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>FC Spaeri Tbilisi</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>FC Gonio ✓ - FC Locomotive Tbilisi: 2:1</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>FC Gonio</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+      <c r="I186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan - Sepahan FC ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Sepahan FC</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Merani Martvili X - FC Rustavi: 0:3</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Merani Martvili</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+      <c r="I188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>FK Spartak Subotica  - FK Radnicki Nis: 23:00</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>FK Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>23</v>
+      </c>
+      <c r="I189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera  - Hapoel Nof HaGalil: 0:0</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SC Poltava X - Obolon Kyiv: 1:2</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>SC Poltava</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+      <c r="I191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Galway United FC - Bohemian Football Club X: 2:0</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Bohemian Football Club</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ADO Den Haag ✓ - FC Dordrecht: 3:0</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Ümraniyespor X - Sariyer: 1:3</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+      <c r="I194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Clermont Foot 63 X - FC Annecy: 0:1</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Clermont Foot 63</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Virtus Entella ✓ - UC Sampdoria: 3:1</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Virtus Entella</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+      <c r="I196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>FK Mladost Lucani  - Zeleznicar Pancevo: 23:00</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>FK Mladost Lucani</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>23</v>
+      </c>
+      <c r="I197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>FK Kabel Novi Sad - FK Dubocica Leskovac : 23:00</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>FK Dubocica Leskovac</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="n">
+        <v>23</v>
+      </c>
+      <c r="I198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Deportes Recoleta X - Rangers de Talca: 2:3</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Deportes Recoleta</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+      <c r="I199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ES Ben Aknoun - CS Constantine : 23:00</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>CS Constantine</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="n">
+        <v>23</v>
+      </c>
+      <c r="I200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Esporte Clube Vitória - Esporte Clube Bahia X: 2:1</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Esporte Clube Bahia</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>3</v>
+      </c>
+      <c r="I201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Sriwijaya FC X - Persekat Tegal: 0:1</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Sriwijaya FC</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño ✓ - Club Sportivo Trinidense: 1:0</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Kelantan The Real Warriors X - Sabah FC: 1:2</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Kelantan The Real Warriors</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>3</v>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Tadamon Sour X - Al-Abbassieh FC: 1:3</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Tadamon Sour</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>4</v>
+      </c>
+      <c r="I205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>FC Turkistan - Kairat-Zhas ✓: 1:4</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Kairat-Zhas</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>5</v>
+      </c>
+      <c r="I206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
           <t>FC Utrecht U21 ✓ - MVV Maastricht: 3:1</t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="C207" t="n">
         <v>1.56</v>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>FC Utrecht U21</t>
         </is>
       </c>
-      <c r="E174" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F174" t="inlineStr">
+      <c r="E207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F207" t="inlineStr">
         <is>
           <t>2%</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
-      <c r="H174" t="n">
+      <c r="H207" t="n">
         <v>4</v>
       </c>
-      <c r="I174" t="b">
+      <c r="I207" t="b">
         <v>0</v>
       </c>
     </row>

--- a/2025-10-17/17_ai.full_fixtures.xlsx
+++ b/2025-10-17/17_ai.full_fixtures.xlsx
@@ -971,7 +971,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bahla Club  - Dhofar Club: 14:00</t>
+          <t>Bahla Club X - Dhofar Club: 1:3</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -990,9 +990,13 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -3752,31 +3756,35 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FK Tekstilac Odzaci  - FK Usce Novi Beograd: 23:00</t>
+          <t>Fortuna Düsseldorf X - Eintracht Braunschweig: 1:2</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.65</v>
+        <v>3.01</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FK Tekstilac Odzaci</t>
+          <t>Fortuna Düsseldorf</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H90" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3787,19 +3795,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf X - Eintracht Braunschweig: 1:2</t>
+          <t>Widzew Lodz ✓ - Radomiak Radom: 3:2</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.01</v>
+        <v>2.5</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Fortuna Düsseldorf</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3808,14 +3816,14 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3826,35 +3834,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Widzew Lodz ✓ - Radomiak Radom: 3:2</t>
+          <t>SV Kapfenberg  - SK Austria Klagenfurt: 1:1</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.5</v>
+        <v>3.24</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>SV Kapfenberg</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>21%</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3865,31 +3869,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SV Kapfenberg  - SK Austria Klagenfurt: 1:1</t>
+          <t>Miedz Legnica  - Pogon Siedlce: 2:2</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.24</v>
+        <v>1.59</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SV Kapfenberg</t>
+          <t>Miedz Legnica</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3900,28 +3904,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Miedz Legnica  - Pogon Siedlce: 2:2</t>
+          <t>Audax Italiano ✓ - Unión La Calera: 4:3</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.59</v>
+        <v>1</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Miedz Legnica</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -3935,15 +3943,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Audax Italiano ✓ - Unión La Calera: 4:3</t>
+          <t>Hapoel Acre X - Hapoel Raanana: 0:2</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Hapoel Acre</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3956,11 +3964,11 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
@@ -3974,19 +3982,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hapoel Acre X - Hapoel Raanana: 0:2</t>
+          <t>Persita Tangerang ✓ - PSIM Yogyakarta: 4:0</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Hapoel Acre</t>
+          <t>Persita Tangerang</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3995,11 +4003,11 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
@@ -4013,15 +4021,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Persita Tangerang ✓ - PSIM Yogyakarta: 4:0</t>
+          <t>Kendal Tornado FC X - Deltras FC: 0:1</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.21</v>
+        <v>1.89</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Persita Tangerang</t>
+          <t>Kendal Tornado FC</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4034,14 +4042,14 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4052,19 +4060,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kendal Tornado FC  - Deltras FC: 13:00</t>
+          <t>El Mokawloon SC  - Enppi SC: 1:1</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.89</v>
+        <v>0.03</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Kendal Tornado FC</t>
+          <t>El Mokawloon SC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4073,7 +4081,7 @@
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -4087,15 +4095,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>El Mokawloon SC  - Enppi SC: 1:1</t>
+          <t>Club Athlétique Bizertin  - Stade Tunisien: 23:00</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.03</v>
+        <v>0.61</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>El Mokawloon SC</t>
+          <t>Club Athlétique Bizertin</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4103,12 +4111,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -4122,28 +4130,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Club Athlétique Bizertin  - Stade Tunisien: 23:00</t>
+          <t>CA Rentistas X - Uruguay Montevideo FC: 1:3</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.61</v>
+        <v>1.41</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Club Athlétique Bizertin</t>
+          <t>CA Rentistas</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>19%</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H100" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -6300,15 +6312,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FK Borac 1926 Cacak  - FK FAP Priboj: 23:00</t>
+          <t>Jeunesse Sportive Omrane  - JS Kairouanaise: 23:00</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>FK Borac 1926 Cacak</t>
+          <t>Jeunesse Sportive Omrane</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -6335,28 +6347,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Omrane  - JS Kairouanaise: 23:00</t>
+          <t>CS Herediano - LD Alajuelense ✓: 1:3</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.19</v>
+        <v>0.79</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Omrane</t>
+          <t>LD Alajuelense</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H159" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I159" t="b">
         <v>0</v>
@@ -6370,30 +6386,26 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CS Herediano - LD Alajuelense ✓: 1:3</t>
+          <t>Lexington SC - Sacramento Republic FC : 2:2</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.79</v>
+        <v>1.19</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>LD Alajuelense</t>
+          <t>Sacramento Republic FC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
         <v>4</v>
       </c>
@@ -6409,19 +6421,19 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lexington SC - Sacramento Republic FC : 2:2</t>
+          <t>FK TSC Backa Topola  - FK Partizan Belgrade: 23:00</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.19</v>
+        <v>3.96</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Sacramento Republic FC</t>
+          <t>FK TSC Backa Topola</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -6430,7 +6442,7 @@
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I161" t="b">
         <v>0</v>
@@ -6444,31 +6456,35 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FK TSC Backa Topola  - FK Partizan Belgrade: 23:00</t>
+          <t>Llanelli Town AFC ✓ - Haverfordwest County: 3:0</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3.96</v>
+        <v>2.25</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>FK TSC Backa Topola</t>
+          <t>Llanelli Town AFC</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H162" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -6479,35 +6495,35 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Llanelli Town AFC ✓ - Haverfordwest County: 3:0</t>
+          <t>Mash'al Mubarek X - Xorazm Urganch: 0:3</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2.25</v>
+        <v>1.08</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Llanelli Town AFC</t>
+          <t>Mash'al Mubarek</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H163" t="n">
         <v>3</v>
       </c>
       <c r="I163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -6518,15 +6534,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Mash'al Mubarek X - Xorazm Urganch: 0:3</t>
+          <t>Arsenal Dzerzhinsk X - Isloch Minsk Region: 0:1</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Mash'al Mubarek</t>
+          <t>Arsenal Dzerzhinsk</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -6534,7 +6550,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6543,10 +6559,10 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -6557,15 +6573,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Arsenal Dzerzhinsk X - Isloch Minsk Region: 0:1</t>
+          <t>Athlone Town AFC - Longford Town FC ✓: 1:2</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.12</v>
+        <v>1.77</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Arsenal Dzerzhinsk</t>
+          <t>Longford Town FC</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -6578,14 +6594,14 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -6596,32 +6612,28 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Athlone Town AFC - Longford Town FC ✓: 1:2</t>
+          <t>Rodez AF - Stade Reims : 2:2</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Longford Town FC</t>
+          <t>Stade Reims</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I166" t="b">
         <v>0</v>
@@ -6635,15 +6647,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Rodez AF - Stade Reims : 2:2</t>
+          <t>Olympic Charleroi - KAS Eupen ✓: 0:1</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Stade Reims</t>
+          <t>KAS Eupen</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -6654,12 +6666,16 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -6670,19 +6686,19 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Olympic Charleroi - KAS Eupen ✓: 0:1</t>
+          <t>FC Vysocina Jihlava X - SK Dynamo Ceske Budejovice: 0:1</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2.28</v>
+        <v>1.62</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>KAS Eupen</t>
+          <t>FC Vysocina Jihlava</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6691,7 +6707,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -6709,19 +6725,19 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FC Vysocina Jihlava X - SK Dynamo Ceske Budejovice: 0:1</t>
+          <t>FC Eindhoven X - Vitesse Arnhem: 0:4</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1.62</v>
+        <v>2.45</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>FC Vysocina Jihlava</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -6734,10 +6750,10 @@
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -6748,15 +6764,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FC Eindhoven X - Vitesse Arnhem: 0:4</t>
+          <t>Alianza Universidad  - Asociación Deportiva Tarma: 23:00</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2.45</v>
+        <v>2.07</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Alianza Universidad</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -6767,13 +6783,9 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I170" t="b">
         <v>0</v>
@@ -6787,31 +6799,35 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Alianza Universidad  - Asociación Deportiva Tarma: 23:00</t>
+          <t>Ballinamallard United FC X - Loughgall FC: 0:1</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Alianza Universidad</t>
+          <t>Ballinamallard United FC</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>10%</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H171" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -6822,15 +6838,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ballinamallard United FC X - Loughgall FC: 0:1</t>
+          <t>NK Opatija - NK Rudes ✓: 0:1</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.99</v>
+        <v>1.21</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Ballinamallard United FC</t>
+          <t>NK Rudes</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -6843,7 +6859,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -6861,15 +6877,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NK Opatija - NK Rudes ✓: 0:1</t>
+          <t>HNK Vukovar 1991  - NK Lokomotiva Zagreb: 1:1</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.21</v>
+        <v>1.88</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>NK Rudes</t>
+          <t>HNK Vukovar 1991</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -6880,13 +6896,9 @@
           <t>10%</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
@@ -6900,15 +6912,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>HNK Vukovar 1991  - NK Lokomotiva Zagreb: 1:1</t>
+          <t>Union Sportive de Ben Guerdane  - Avenir Sportif de Gabès: 23:00</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.88</v>
+        <v>1.08</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>HNK Vukovar 1991</t>
+          <t>Union Sportive de Ben Guerdane</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -6916,15 +6928,15 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>9%</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6935,31 +6947,35 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Union Sportive de Ben Guerdane  - Avenir Sportif de Gabès: 23:00</t>
+          <t>Middlesbrough FC - Ipswich Town X: 2:1</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1.08</v>
+        <v>2.35</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Union Sportive de Ben Guerdane</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H175" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -6970,19 +6986,19 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Middlesbrough FC - Ipswich Town X: 2:1</t>
+          <t>FC Domagnano ✓ - AC Juvenes-Dogana: 3:1</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2.35</v>
+        <v>0.71</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>FC Domagnano</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6991,14 +7007,14 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -7009,19 +7025,19 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FC Domagnano ✓ - AC Juvenes-Dogana: 3:1</t>
+          <t>1.FC Union Berlin ✓ - Borussia Mönchengladbach: 3:1</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.71</v>
+        <v>2.39</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>FC Domagnano</t>
+          <t>1.FC Union Berlin</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7048,15 +7064,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1.FC Union Berlin ✓ - Borussia Mönchengladbach: 3:1</t>
+          <t>SD Family Astana X - FC Aktobe II: 2:7</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1.FC Union Berlin</t>
+          <t>SD Family Astana</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -7069,11 +7085,11 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I178" t="b">
         <v>0</v>
@@ -7087,32 +7103,28 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SD Family Astana X - FC Aktobe II: 2:7</t>
+          <t>OFK Vrsac  - Graficar Belgrad: 23:00</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SD Family Astana</t>
+          <t>OFK Vrsac</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I179" t="b">
         <v>0</v>
@@ -7126,28 +7138,32 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>OFK Vrsac  - Graficar Belgrad: 23:00</t>
+          <t>Hougang United X - Albirex Niigata (S): 0:4</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.37</v>
+        <v>2.66</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>OFK Vrsac</t>
+          <t>Hougang United</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H180" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I180" t="b">
         <v>0</v>
@@ -7161,19 +7177,19 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Hougang United X - Albirex Niigata (S): 0:4</t>
+          <t>Maccabi Jaffa X - Hapoel Afula: 1:2</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2.66</v>
+        <v>1.55</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Hougang United</t>
+          <t>Maccabi Jaffa</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7186,7 +7202,7 @@
         </is>
       </c>
       <c r="H181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181" t="b">
         <v>0</v>
@@ -7200,15 +7216,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Maccabi Jaffa X - Hapoel Afula: 1:2</t>
+          <t>Ghazl El Mahalla ✓ - Kahraba Ismailia: 1:0</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Maccabi Jaffa</t>
+          <t>Ghazl El Mahalla</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -7216,19 +7232,19 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -7239,15 +7255,15 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ghazl El Mahalla ✓ - Kahraba Ismailia: 1:0</t>
+          <t>Iberia 1999 Tbilisi II - FC Samtredia ✓: 0:1</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Ghazl El Mahalla</t>
+          <t>FC Samtredia</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -7278,19 +7294,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Iberia 1999 Tbilisi II - FC Samtredia ✓: 0:1</t>
+          <t>Dinamo Tbilisi II - FC Spaeri Tbilisi X: 2:1</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1.16</v>
+        <v>2.68</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>FC Samtredia</t>
+          <t>FC Spaeri Tbilisi</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7299,11 +7315,11 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I184" t="b">
         <v>1</v>
@@ -7317,19 +7333,19 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Dinamo Tbilisi II - FC Spaeri Tbilisi X: 2:1</t>
+          <t>FC Gonio ✓ - FC Locomotive Tbilisi: 2:1</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2.68</v>
+        <v>1.32</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>FC Spaeri Tbilisi</t>
+          <t>FC Gonio</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7338,14 +7354,14 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H185" t="n">
         <v>3</v>
       </c>
       <c r="I185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -7356,15 +7372,15 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FC Gonio ✓ - FC Locomotive Tbilisi: 2:1</t>
+          <t>Esteghlal Khuzestan - Sepahan FC ✓: 0:2</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>FC Gonio</t>
+          <t>Sepahan FC</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -7381,10 +7397,10 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -7395,15 +7411,15 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan - Sepahan FC ✓: 0:2</t>
+          <t>Merani Martvili X - FC Rustavi: 0:3</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Sepahan FC</t>
+          <t>Merani Martvili</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -7416,14 +7432,14 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -7434,15 +7450,15 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Merani Martvili X - FC Rustavi: 0:3</t>
+          <t>FK Spartak Subotica  - FK Radnicki Nis: 23:00</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Merani Martvili</t>
+          <t>FK Spartak Subotica</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -7453,13 +7469,9 @@
           <t>8%</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I188" t="b">
         <v>0</v>
@@ -7473,15 +7485,15 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FK Spartak Subotica  - FK Radnicki Nis: 23:00</t>
+          <t>Hapoel Hadera  - Hapoel Nof HaGalil: 0:0</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>FK Spartak Subotica</t>
+          <t>Hapoel Hadera</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -7494,10 +7506,10 @@
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -7508,31 +7520,35 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Hapoel Hadera  - Hapoel Nof HaGalil: 0:0</t>
+          <t>SC Poltava X - Obolon Kyiv: 1:2</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1.44</v>
+        <v>0.82</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hapoel Hadera</t>
+          <t>SC Poltava</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -7543,23 +7559,23 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SC Poltava X - Obolon Kyiv: 1:2</t>
+          <t>Galway United FC - Bohemian Football Club X: 2:0</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.82</v>
+        <v>1.6</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SC Poltava</t>
+          <t>Bohemian Football Club</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7568,10 +7584,10 @@
         </is>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -7582,19 +7598,19 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Galway United FC - Bohemian Football Club X: 2:0</t>
+          <t>ADO Den Haag ✓ - FC Dordrecht: 3:0</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Bohemian Football Club</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7603,11 +7619,11 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192" t="b">
         <v>1</v>
@@ -7621,19 +7637,19 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ADO Den Haag ✓ - FC Dordrecht: 3:0</t>
+          <t>Ümraniyespor X - Sariyer: 1:3</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2.07</v>
+        <v>1.57</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Ümraniyespor</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -7642,14 +7658,14 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -7660,15 +7676,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Ümraniyespor X - Sariyer: 1:3</t>
+          <t>Clermont Foot 63 X - FC Annecy: 0:1</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>Clermont Foot 63</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -7685,10 +7701,10 @@
         </is>
       </c>
       <c r="H194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -7699,15 +7715,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Clermont Foot 63 X - FC Annecy: 0:1</t>
+          <t>Virtus Entella ✓ - UC Sampdoria: 3:1</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Clermont Foot 63</t>
+          <t>Virtus Entella</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -7720,14 +7736,14 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -7738,32 +7754,28 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Virtus Entella ✓ - UC Sampdoria: 3:1</t>
+          <t>FK Mladost Lucani  - Zeleznicar Pancevo: 23:00</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Virtus Entella</t>
+          <t>FK Mladost Lucani</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
           <t>7%</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I196" t="b">
         <v>0</v>
@@ -7777,15 +7789,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FK Mladost Lucani  - Zeleznicar Pancevo: 23:00</t>
+          <t>FK Kabel Novi Sad - FK Dubocica Leskovac : 23:00</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.9</v>
+        <v>0.52</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>FK Mladost Lucani</t>
+          <t>FK Dubocica Leskovac</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7793,7 +7805,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
@@ -7812,28 +7824,32 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FK Kabel Novi Sad - FK Dubocica Leskovac : 23:00</t>
+          <t>Deportes Recoleta X - Rangers de Talca: 2:3</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.52</v>
+        <v>1.01</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>FK Dubocica Leskovac</t>
+          <t>Deportes Recoleta</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H198" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I198" t="b">
         <v>0</v>
@@ -7847,15 +7863,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Deportes Recoleta X - Rangers de Talca: 2:3</t>
+          <t>ES Ben Aknoun - CS Constantine : 23:00</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Deportes Recoleta</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -7866,13 +7882,9 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I199" t="b">
         <v>0</v>
@@ -7886,15 +7898,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ES Ben Aknoun - CS Constantine : 23:00</t>
+          <t>Esporte Clube Vitória - Esporte Clube Bahia X: 2:1</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Esporte Clube Bahia</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -7905,9 +7917,13 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H200" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I200" t="b">
         <v>0</v>
@@ -7921,15 +7937,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Esporte Clube Vitória - Esporte Clube Bahia X: 2:1</t>
+          <t>Standard Liège ✓ - Royal Antwerp FC: 1:0</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Esporte Clube Bahia</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -7942,14 +7958,14 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
